--- a/medicine/Enfance/Joëlle_Brethes/Joëlle_Brethes.xlsx
+++ b/medicine/Enfance/Joëlle_Brethes/Joëlle_Brethes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jo%C3%ABlle_Brethes</t>
+          <t>Joëlle_Brethes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joëlle Brethes, née le 4 décembre 1947[1] à Paris, est une écrivaine et poétesse française qui vit à La Réunion.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joëlle Brethes, née le 4 décembre 1947 à Paris, est une écrivaine et poétesse française qui vit à La Réunion.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jo%C3%ABlle_Brethes</t>
+          <t>Joëlle_Brethes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enseignante dans le primaire puis dans le secondaire après des diplômes décrochés grâce au CNTE, professeur de lettres[2], elle a toujours aimé écrire. Ce n’est pourtant qu’en 1990 que sa distraction est devenue passion et qu'elle y consacre la majorité de son temps libre.
-Elle a déjà reçu une soixantaine de premiers prix dans des concours d’écriture aussi bien en métropole qu’à La Réunion pour des nouvelles, des contes, de la poésie ou du théâtre[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enseignante dans le primaire puis dans le secondaire après des diplômes décrochés grâce au CNTE, professeur de lettres, elle a toujours aimé écrire. Ce n’est pourtant qu’en 1990 que sa distraction est devenue passion et qu'elle y consacre la majorité de son temps libre.
+Elle a déjà reçu une soixantaine de premiers prix dans des concours d’écriture aussi bien en métropole qu’à La Réunion pour des nouvelles, des contes, de la poésie ou du théâtre.
 Inscrite à la faculté de lettres de La Réunion, elle a repris des études d’anglais en vue d'un doctorat et a découvert d'autres activités, le cinéma notamment, où elle a tenu en juin puis en septembre 2006 deux rôles dans les courts métrages Faim de série et Le rouge et Lenoir. 
-Membre de l'association Laféladi qui vise à promouvoir la littérature de jeunesse, elle anime des ateliers d'écriture et de diction auprès des jeunes[4]. Elle pratique le slam depuis 2009 et est donneuse de voix à Tek tek bibliothèque (enregistrements audio pour les aveugles).
-Son premier roman, Les Vénusiennes, paraît en 2018[5].
+Membre de l'association Laféladi qui vise à promouvoir la littérature de jeunesse, elle anime des ateliers d'écriture et de diction auprès des jeunes. Elle pratique le slam depuis 2009 et est donneuse de voix à Tek tek bibliothèque (enregistrements audio pour les aveugles).
+Son premier roman, Les Vénusiennes, paraît en 2018.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jo%C3%ABlle_Brethes</t>
+          <t>Joëlle_Brethes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Contes ou recueils de nouvelles
-Grand-Mère Kal, conte, ARS Terres Créoles, 1997
+          <t>Contes ou recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Grand-Mère Kal, conte, ARS Terres Créoles, 1997
 Le jardin secret et autres récits, nouvelles, éditions UDIR, 1999
 Cuiserymes, poésie, Éditions ACM, 2000
 Grandiab’ et autres contes, contes, éditions UDIR, 2000
@@ -568,17 +587,119 @@
 Slams à l'âme 4, poésie contemporaine, Surya Éditions, 2013
 Au fil de ma toile, poésie traditionnelle, Pulsio, 2014
 Le voyage de Kalla, conte, Éditions Orphie, 2014
-Le Chaud lapin, nouvelle, Short édition, 2019
-Poèmes et récits édités
-Dans des recueils collectifs
-Dans des revues métropolitaines : Amitiés littéraires du Gâtinais, Bien Dire, Casse, Europoésie, Florilège, Miniature, MF, Poésie première, Portique, Scen'ART, SOL’AIR, Terpsichore, Vampire Dark News, Ténèbre et Visage du XXe siècle.
-Pièces jouées
-Une muse peu ordinaire, Cuisery, mai 1993
+Le Chaud lapin, nouvelle, Short édition, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joëlle_Brethes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo%C3%ABlle_Brethes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Poèmes et récits édités</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Dans des recueils collectifs
+Dans des revues métropolitaines : Amitiés littéraires du Gâtinais, Bien Dire, Casse, Europoésie, Florilège, Miniature, MF, Poésie première, Portique, Scen'ART, SOL’AIR, Terpsichore, Vampire Dark News, Ténèbre et Visage du XXe siècle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joëlle_Brethes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo%C3%ABlle_Brethes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pièces jouées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Une muse peu ordinaire, Cuisery, mai 1993
 Peintre à nu(s), Association Jeux Thèmes, Paris, 26 février 1996
 Ne réveillez pas le somnambule, Association Jeux Thèmes, Paris, 6 mai 1996
-Pas de trousseau pour Judith', Association Jeux Thèmes, Paris, 29 mai 1998
-Romans
-Les Vénusiennes, La Plume et le Parchemin, 2018[2]</t>
+Pas de trousseau pour Judith', Association Jeux Thèmes, Paris, 29 mai 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joëlle_Brethes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jo%C3%ABlle_Brethes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Vénusiennes, La Plume et le Parchemin, 2018</t>
         </is>
       </c>
     </row>
